--- a/Docs/StatusPlanning.xlsx
+++ b/Docs/StatusPlanning.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastiaan\Documents\GitHub\bapgcOpdracht\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse\Documents\Bio-informatica\Jaar 3\Periode 2\Bapgc\bapgcOpdracht\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Sebastiaan</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>Het voor mij onduidelijke deel van deze stap.  Eerste ingeving: Genereer de lijst van TFBS’es waar deze motifs bij horen</t>
+  </si>
+  <si>
+    <t>Klaar</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>Bezig</t>
   </si>
 </sst>
 </file>
@@ -96,7 +105,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,6 +115,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -122,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -137,6 +152,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -420,19 +445,19 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -449,7 +474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -457,7 +482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -472,29 +497,41 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>

--- a/Docs/StatusPlanning.xlsx
+++ b/Docs/StatusPlanning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Sebastiaan</t>
   </si>
@@ -89,7 +89,10 @@
     <t>Jesse</t>
   </si>
   <si>
-    <t>Bezig</t>
+    <t>Script runt (searchSeq)</t>
+  </si>
+  <si>
+    <t>Pipeline script maken</t>
   </si>
 </sst>
 </file>
@@ -442,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,6 +545,21 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/Docs/StatusPlanning.xlsx
+++ b/Docs/StatusPlanning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sebastiaan</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Pipeline script maken</t>
+  </si>
+  <si>
+    <t>Bezig</t>
   </si>
 </sst>
 </file>
@@ -517,31 +520,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:5" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Docs/StatusPlanning.xlsx
+++ b/Docs/StatusPlanning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Sebastiaan</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>Jesse</t>
-  </si>
-  <si>
-    <t>Script runt (searchSeq)</t>
   </si>
   <si>
     <t>Pipeline script maken</t>
@@ -451,7 +448,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +525,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>20</v>
@@ -545,7 +542,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>20</v>
@@ -559,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>

--- a/Docs/StatusPlanning.xlsx
+++ b/Docs/StatusPlanning.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse\Documents\Bio-informatica\Jaar 3\Periode 2\Bapgc\bapgcOpdracht\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastiaan\Documents\GitHub\bapgcOpdracht\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sebastiaan</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Bezig</t>
+  </si>
+  <si>
+    <t>Af. En staat in pipeline</t>
+  </si>
+  <si>
+    <t>Klaar. Wordt klaargemaakt voor pipeline</t>
   </si>
 </sst>
 </file>
@@ -148,9 +154,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -163,6 +166,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -451,16 +457,16 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -477,7 +483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -485,86 +491,86 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>0</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/StatusPlanning.xlsx
+++ b/Docs/StatusPlanning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Sebastiaan</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>Bezig</t>
+  </si>
+  <si>
+    <t>Niet nodig</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>Zoek combinatie van motifs in het hele humane genoom</t>
   </si>
 </sst>
 </file>
@@ -445,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,20 +543,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:5" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -565,6 +574,21 @@
         <v>0</v>
       </c>
       <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
